--- a/Prueba.xlsx
+++ b/Prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geova\OneDrive\Escritorio\MetodosNumericos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F7E187-9A33-4E08-8429-69851B0135BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258D2133-519A-4B66-AF51-DF46FE28C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,9 +365,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -381,34 +383,98 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>32.049999999999997</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>31.41</v>
+        <v>23.82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>34.549999999999997</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>33.840000000000003</v>
+        <v>25.53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>39.83</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>39.119999999999997</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>39.369999999999997</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>38.83</v>
+        <v>28.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>28.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>29.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>29.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>30.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>31.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>29.82</v>
       </c>
     </row>
   </sheetData>
